--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 6.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
